--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/GBR.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/GBR.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>9.112679481506348</v>
+        <v>14.51705932617188</v>
       </c>
       <c r="C2" t="n">
-        <v>6.547891616821289</v>
+        <v>14.20167827606201</v>
       </c>
       <c r="D2" t="n">
-        <v>11.67746734619141</v>
+        <v>14.83244037628174</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>9.574318885803223</v>
+        <v>14.54140472412109</v>
       </c>
       <c r="C3" t="n">
-        <v>7.276132106781006</v>
+        <v>14.11007404327393</v>
       </c>
       <c r="D3" t="n">
-        <v>11.87250518798828</v>
+        <v>14.97273540496826</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>9.415984153747559</v>
+        <v>13.79243659973145</v>
       </c>
       <c r="C4" t="n">
-        <v>6.919053077697754</v>
+        <v>13.24165821075439</v>
       </c>
       <c r="D4" t="n">
-        <v>11.91291522979736</v>
+        <v>14.3432149887085</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>9.647276878356934</v>
+        <v>12.75555229187012</v>
       </c>
       <c r="C5" t="n">
-        <v>8.305232048034668</v>
+        <v>11.87860584259033</v>
       </c>
       <c r="D5" t="n">
-        <v>10.9893217086792</v>
+        <v>13.6324987411499</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>9.606480598449707</v>
+        <v>11.96502494812012</v>
       </c>
       <c r="C6" t="n">
-        <v>6.542538642883301</v>
+        <v>11.2892017364502</v>
       </c>
       <c r="D6" t="n">
-        <v>12.67042255401611</v>
+        <v>12.64084815979004</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>9.44780445098877</v>
+        <v>11.47092151641846</v>
       </c>
       <c r="C7" t="n">
-        <v>7.238522529602051</v>
+        <v>11.02464389801025</v>
       </c>
       <c r="D7" t="n">
-        <v>11.65708637237549</v>
+        <v>11.91719913482666</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>9.156511306762695</v>
+        <v>11.15967750549316</v>
       </c>
       <c r="C8" t="n">
-        <v>6.842563152313232</v>
+        <v>10.65462875366211</v>
       </c>
       <c r="D8" t="n">
-        <v>11.470458984375</v>
+        <v>11.66472625732422</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>9.341341018676758</v>
+        <v>10.8319206237793</v>
       </c>
       <c r="C9" t="n">
-        <v>7.306559562683105</v>
+        <v>10.24793815612793</v>
       </c>
       <c r="D9" t="n">
-        <v>11.37612247467041</v>
+        <v>11.41590309143066</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>9.201318740844727</v>
+        <v>10.37907314300537</v>
       </c>
       <c r="C10" t="n">
-        <v>6.847538948059082</v>
+        <v>9.72948169708252</v>
       </c>
       <c r="D10" t="n">
-        <v>11.55509853363037</v>
+        <v>11.02866458892822</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>9.58619499206543</v>
+        <v>9.937885284423828</v>
       </c>
       <c r="C11" t="n">
-        <v>7.15965747833252</v>
+        <v>9.231368064880371</v>
       </c>
       <c r="D11" t="n">
-        <v>12.01273250579834</v>
+        <v>10.64440250396729</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>9.415280342102051</v>
+        <v>9.561148643493652</v>
       </c>
       <c r="C12" t="n">
-        <v>7.377370357513428</v>
+        <v>8.984763145446777</v>
       </c>
       <c r="D12" t="n">
-        <v>11.45318984985352</v>
+        <v>10.13753414154053</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>9.645903587341309</v>
+        <v>9.380434989929199</v>
       </c>
       <c r="C13" t="n">
-        <v>7.623466491699219</v>
+        <v>9.06508731842041</v>
       </c>
       <c r="D13" t="n">
-        <v>11.6683406829834</v>
+        <v>9.695782661437988</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>9.433963775634766</v>
+        <v>9.327203750610352</v>
       </c>
       <c r="C14" t="n">
-        <v>8.004085540771484</v>
+        <v>9.111580848693848</v>
       </c>
       <c r="D14" t="n">
-        <v>10.86384201049805</v>
+        <v>9.542826652526855</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>9.419275283813477</v>
+        <v>9.273111343383789</v>
       </c>
       <c r="C15" t="n">
-        <v>7.462474822998047</v>
+        <v>9.05454158782959</v>
       </c>
       <c r="D15" t="n">
-        <v>11.37607574462891</v>
+        <v>9.491681098937988</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>9.355403900146484</v>
+        <v>9.306995391845703</v>
       </c>
       <c r="C16" t="n">
-        <v>6.726798057556152</v>
+        <v>9.147968292236328</v>
       </c>
       <c r="D16" t="n">
-        <v>11.98400974273682</v>
+        <v>9.466022491455078</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>9.649045944213867</v>
+        <v>9.352734565734863</v>
       </c>
       <c r="C17" t="n">
-        <v>6.849905967712402</v>
+        <v>9.053827285766602</v>
       </c>
       <c r="D17" t="n">
-        <v>12.44818592071533</v>
+        <v>9.651641845703125</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>10.12414169311523</v>
+        <v>9.326846122741699</v>
       </c>
       <c r="C18" t="n">
-        <v>8.555419921875</v>
+        <v>9.09687614440918</v>
       </c>
       <c r="D18" t="n">
-        <v>11.69286346435547</v>
+        <v>9.556816101074219</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>9.806222915649414</v>
+        <v>9.431382179260254</v>
       </c>
       <c r="C19" t="n">
-        <v>7.467953681945801</v>
+        <v>9.083699226379395</v>
       </c>
       <c r="D19" t="n">
-        <v>12.14449214935303</v>
+        <v>9.779065132141113</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>9.91010856628418</v>
+        <v>9.31016731262207</v>
       </c>
       <c r="C20" t="n">
-        <v>7.967440605163574</v>
+        <v>9.069942474365234</v>
       </c>
       <c r="D20" t="n">
-        <v>11.85277652740479</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>8.886088371276855</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.684535026550293</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.08764171600342</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>9.650870323181152</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8.143321990966797</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11.15841865539551</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>9.25721549987793</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7.605504989624023</v>
-      </c>
-      <c r="D23" t="n">
-        <v>10.90892601013184</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>9.857011795043945</v>
-      </c>
-      <c r="C24" t="n">
-        <v>8.496100425720215</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.21792316436768</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>9.897512435913086</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.288526058197021</v>
-      </c>
-      <c r="D25" t="n">
-        <v>12.50649833679199</v>
+        <v>9.550392150878906</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>10.05321760177612</v>
+        <v>9.322687149047852</v>
       </c>
       <c r="C2" t="n">
-        <v>9.490649700740173</v>
+        <v>9.123950004577637</v>
       </c>
       <c r="D2" t="n">
-        <v>10.61578550281207</v>
+        <v>9.521424293518066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>12.13698253631592</v>
+        <v>9.278886795043945</v>
       </c>
       <c r="C3" t="n">
-        <v>9.476240513893892</v>
+        <v>9.063371658325195</v>
       </c>
       <c r="D3" t="n">
-        <v>14.79772455873794</v>
+        <v>9.494401931762695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>10.32162647247315</v>
+        <v>9.298746109008789</v>
       </c>
       <c r="C4" t="n">
-        <v>8.967041375523808</v>
+        <v>9.128826141357422</v>
       </c>
       <c r="D4" t="n">
-        <v>11.67621156942248</v>
+        <v>9.468666076660156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>11.79459209442139</v>
+        <v>9.27888298034668</v>
       </c>
       <c r="C5" t="n">
-        <v>9.75225574603758</v>
+        <v>9.059696197509766</v>
       </c>
       <c r="D5" t="n">
-        <v>13.83692844280519</v>
+        <v>9.498069763183594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>9.045536041259766</v>
+        <v>9.315045356750488</v>
       </c>
       <c r="C6" t="n">
-        <v>7.50863612597548</v>
+        <v>9.079921722412109</v>
       </c>
       <c r="D6" t="n">
-        <v>10.58243595654405</v>
+        <v>9.550168991088867</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>10.58685398101807</v>
+        <v>14.40279102325439</v>
       </c>
       <c r="C2" t="n">
-        <v>9.182339668273926</v>
+        <v>13.93522357940674</v>
       </c>
       <c r="D2" t="n">
-        <v>11.99136829376221</v>
+        <v>14.87035846710205</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>10.61982536315918</v>
+        <v>14.52042865753174</v>
       </c>
       <c r="C3" t="n">
-        <v>8.87900447845459</v>
+        <v>13.59097862243652</v>
       </c>
       <c r="D3" t="n">
-        <v>12.36064624786377</v>
+        <v>15.44987869262695</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>10.95605182647705</v>
+        <v>13.57218360900879</v>
       </c>
       <c r="C4" t="n">
-        <v>9.363974571228027</v>
+        <v>12.42195320129395</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54812908172607</v>
+        <v>14.72241401672363</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>11.20539379119873</v>
+        <v>12.19063568115234</v>
       </c>
       <c r="C5" t="n">
-        <v>9.752208709716797</v>
+        <v>10.46263313293457</v>
       </c>
       <c r="D5" t="n">
-        <v>12.65857887268066</v>
+        <v>13.91863822937012</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>11.27497291564941</v>
+        <v>11.21707725524902</v>
       </c>
       <c r="C6" t="n">
-        <v>9.479373931884766</v>
+        <v>10.82236576080322</v>
       </c>
       <c r="D6" t="n">
-        <v>13.07057189941406</v>
+        <v>11.61178874969482</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>11.33250904083252</v>
+        <v>11.06717205047607</v>
       </c>
       <c r="C7" t="n">
-        <v>9.360930442810059</v>
+        <v>10.8435583114624</v>
       </c>
       <c r="D7" t="n">
-        <v>13.30408763885498</v>
+        <v>11.29078578948975</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>11.32404804229736</v>
+        <v>11.12677574157715</v>
       </c>
       <c r="C8" t="n">
-        <v>9.900915145874023</v>
+        <v>11.0010871887207</v>
       </c>
       <c r="D8" t="n">
-        <v>12.7471809387207</v>
+        <v>11.25246429443359</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>11.10829734802246</v>
+        <v>11.0074405670166</v>
       </c>
       <c r="C9" t="n">
-        <v>10.21677112579346</v>
+        <v>10.78338241577148</v>
       </c>
       <c r="D9" t="n">
-        <v>11.99982357025146</v>
+        <v>11.23149871826172</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>10.73187065124512</v>
+        <v>11.04181098937988</v>
       </c>
       <c r="C10" t="n">
-        <v>8.748771667480469</v>
+        <v>10.69535732269287</v>
       </c>
       <c r="D10" t="n">
-        <v>12.71496963500977</v>
+        <v>11.38826465606689</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>10.9572582244873</v>
+        <v>11.01861000061035</v>
       </c>
       <c r="C11" t="n">
-        <v>9.723533630371094</v>
+        <v>10.86626434326172</v>
       </c>
       <c r="D11" t="n">
-        <v>12.19098281860352</v>
+        <v>11.17095565795898</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>10.90981101989746</v>
+        <v>11.04726123809814</v>
       </c>
       <c r="C12" t="n">
-        <v>8.881509780883789</v>
+        <v>10.83428764343262</v>
       </c>
       <c r="D12" t="n">
-        <v>12.93811225891113</v>
+        <v>11.26023483276367</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>10.97071552276611</v>
+        <v>11.04353713989258</v>
       </c>
       <c r="C13" t="n">
-        <v>9.349870681762695</v>
+        <v>10.78185367584229</v>
       </c>
       <c r="D13" t="n">
-        <v>12.59156036376953</v>
+        <v>11.30522060394287</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>11.4139575958252</v>
+        <v>11.05206108093262</v>
       </c>
       <c r="C14" t="n">
-        <v>9.983226776123047</v>
+        <v>10.86887168884277</v>
       </c>
       <c r="D14" t="n">
-        <v>12.84468841552734</v>
+        <v>11.23525047302246</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>11.01687145233154</v>
+        <v>11.09492683410645</v>
       </c>
       <c r="C15" t="n">
-        <v>8.902473449707031</v>
+        <v>10.8917350769043</v>
       </c>
       <c r="D15" t="n">
-        <v>13.13126945495605</v>
+        <v>11.29811859130859</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>11.67080211639404</v>
+        <v>11.13505935668945</v>
       </c>
       <c r="C16" t="n">
-        <v>10.16812515258789</v>
+        <v>10.92491626739502</v>
       </c>
       <c r="D16" t="n">
-        <v>13.1734790802002</v>
+        <v>11.34520244598389</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>11.69592094421387</v>
+        <v>11.06436824798584</v>
       </c>
       <c r="C17" t="n">
-        <v>10.36180019378662</v>
+        <v>10.73144817352295</v>
       </c>
       <c r="D17" t="n">
-        <v>13.03004169464111</v>
+        <v>11.39728832244873</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>12.11333084106445</v>
+        <v>11.04675579071045</v>
       </c>
       <c r="C18" t="n">
-        <v>10.26685523986816</v>
+        <v>10.77109146118164</v>
       </c>
       <c r="D18" t="n">
-        <v>13.95980644226074</v>
+        <v>11.32242012023926</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>11.7295970916748</v>
+        <v>11.11343479156494</v>
       </c>
       <c r="C19" t="n">
-        <v>10.07847690582275</v>
+        <v>10.8611478805542</v>
       </c>
       <c r="D19" t="n">
-        <v>13.38071727752686</v>
+        <v>11.36572170257568</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>11.43783187866211</v>
+        <v>11.03277492523193</v>
       </c>
       <c r="C20" t="n">
-        <v>9.307681083679199</v>
+        <v>10.8293981552124</v>
       </c>
       <c r="D20" t="n">
-        <v>13.56798267364502</v>
+        <v>11.23615169525146</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>11.2048168182373</v>
+        <v>11.12793731689453</v>
       </c>
       <c r="C21" t="n">
-        <v>9.27439022064209</v>
+        <v>10.92290019989014</v>
       </c>
       <c r="D21" t="n">
-        <v>13.13524341583252</v>
+        <v>11.33297443389893</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>11.27395153045654</v>
+        <v>11.0982837677002</v>
       </c>
       <c r="C22" t="n">
-        <v>9.643447875976562</v>
+        <v>10.86536884307861</v>
       </c>
       <c r="D22" t="n">
-        <v>12.90445518493652</v>
+        <v>11.33119869232178</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>10.91051292419434</v>
+        <v>11.00507164001465</v>
       </c>
       <c r="C23" t="n">
-        <v>8.942365646362305</v>
+        <v>10.7269115447998</v>
       </c>
       <c r="D23" t="n">
-        <v>12.87866020202637</v>
+        <v>11.28323173522949</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>10.88925838470459</v>
+        <v>11.08287525177002</v>
       </c>
       <c r="C24" t="n">
-        <v>9.331366539001465</v>
+        <v>10.89141178131104</v>
       </c>
       <c r="D24" t="n">
-        <v>12.44715023040771</v>
+        <v>11.274338722229</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>10.85937690734863</v>
+        <v>11.05688285827637</v>
       </c>
       <c r="C25" t="n">
-        <v>8.947994232177734</v>
+        <v>10.81082820892334</v>
       </c>
       <c r="D25" t="n">
-        <v>12.77075958251953</v>
+        <v>11.30293750762939</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>11.28551120758057</v>
+        <v>15.87085809707642</v>
       </c>
       <c r="C2" t="n">
-        <v>9.628576108852611</v>
+        <v>14.29646867009272</v>
       </c>
       <c r="D2" t="n">
-        <v>12.94244630630852</v>
+        <v>17.44524752406011</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>9.684703063964843</v>
+        <v>15.26019792556763</v>
       </c>
       <c r="C3" t="n">
-        <v>7.816200974768383</v>
+        <v>13.70534473247983</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5532051531613</v>
+        <v>16.81505111865542</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>12.37398977279663</v>
+        <v>15.25170984268189</v>
       </c>
       <c r="C4" t="n">
-        <v>11.47730423556106</v>
+        <v>14.48452320060627</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2706753100322</v>
+        <v>16.01889648475751</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>9.873352622985839</v>
+        <v>14.73747138977051</v>
       </c>
       <c r="C5" t="n">
-        <v>8.285795474102283</v>
+        <v>12.93767515319107</v>
       </c>
       <c r="D5" t="n">
-        <v>11.4609097718694</v>
+        <v>16.53726762634994</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>10.83479290008545</v>
+        <v>14.28402338027954</v>
       </c>
       <c r="C6" t="n">
-        <v>9.551499588105738</v>
+        <v>13.63306432032715</v>
       </c>
       <c r="D6" t="n">
-        <v>12.11808621206516</v>
+        <v>14.93498244023194</v>
       </c>
     </row>
   </sheetData>
